--- a/model/Auswertung/Infografiken/Ergebnis_OlmOCR/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_OlmOCR/results.xlsx
@@ -760,16 +760,16 @@
         <v>521</v>
       </c>
       <c r="B5" t="n">
-        <v>275</v>
+        <v>513</v>
       </c>
       <c r="C5" t="n">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4798</v>
+        <v>0.1036</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
@@ -781,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1477</v>
+        <v>0.2727</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1477</v>
+        <v>0.2727</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8866000000000001</v>
+        <v>0.7963</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8866000000000001</v>
+        <v>0.7963</v>
       </c>
       <c r="P5" t="n">
         <v>0.9772999999999999</v>
@@ -808,16 +808,16 @@
         <v>0.9772999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9297</v>
+        <v>0.8776</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9297</v>
+        <v>0.8776</v>
       </c>
       <c r="T5" t="n">
         <v>0.9599</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2362</v>
+        <v>0.4345</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
